--- a/Team-Data/2015-16/5-23-2015-16.xlsx
+++ b/Team-Data/2015-16/5-23-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,40 +733,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593</v>
+        <v>0.585</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J2" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
         <v>28.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O2" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P2" t="n">
         <v>20</v>
@@ -717,7 +784,7 @@
         <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -726,7 +793,7 @@
         <v>9.1</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
@@ -738,10 +805,10 @@
         <v>18.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -759,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -777,19 +844,19 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>30</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,13 +933,13 @@
         <v>39.2</v>
       </c>
       <c r="J3" t="n">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.439</v>
       </c>
       <c r="L3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M3" t="n">
         <v>26.1</v>
@@ -881,25 +948,25 @@
         <v>0.335</v>
       </c>
       <c r="O3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P3" t="n">
         <v>23.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
         <v>11.6</v>
       </c>
       <c r="S3" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T3" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
         <v>13.7</v>
@@ -917,28 +984,28 @@
         <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>7</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -956,19 +1023,19 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>15</v>
@@ -980,16 +1047,16 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="n">
-        <v>0.259</v>
+        <v>0.256</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,28 +1115,28 @@
         <v>38.2</v>
       </c>
       <c r="J4" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1093,19 +1160,19 @@
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z4" t="n">
         <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB4" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.593</v>
+        <v>0.585</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
         <v>84.40000000000001</v>
@@ -1236,58 +1303,58 @@
         <v>0.439</v>
       </c>
       <c r="L5" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O5" t="n">
         <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>35</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>24</v>
@@ -1311,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>4</v>
@@ -1320,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
@@ -1338,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1362,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
         <v>38.6</v>
       </c>
       <c r="J6" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
@@ -1421,10 +1488,10 @@
         <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O6" t="n">
         <v>16.5</v>
@@ -1433,19 +1500,19 @@
         <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
         <v>35.2</v>
       </c>
       <c r="T6" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>13.9</v>
@@ -1460,40 +1527,40 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA6" t="n">
         <v>18.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1502,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1511,19 +1578,19 @@
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1547,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="BC6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,10 +1661,10 @@
         <v>38.7</v>
       </c>
       <c r="J7" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>10.7</v>
@@ -1609,25 +1676,25 @@
         <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P7" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R7" t="n">
         <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.6</v>
@@ -1648,13 +1715,13 @@
         <v>20.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1669,28 +1736,28 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
@@ -1699,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.506</v>
+        <v>0.512</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J8" t="n">
         <v>84.09999999999999</v>
@@ -1785,28 +1852,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
         <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.1</v>
@@ -1824,28 +1891,28 @@
         <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1866,13 +1933,13 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>18</v>
@@ -1908,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="BB8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.395</v>
+        <v>0.402</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,19 +2025,19 @@
         <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>23.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
         <v>18.5</v>
@@ -1979,7 +2046,7 @@
         <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
@@ -1991,10 +2058,10 @@
         <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
@@ -2015,19 +2082,19 @@
         <v>101.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
@@ -2039,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
@@ -2060,25 +2127,25 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
         <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.525</v>
+        <v>0.537</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L10" t="n">
         <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O10" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T10" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U10" t="n">
         <v>19.4</v>
@@ -2179,7 +2246,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>3.7</v>
@@ -2191,25 +2258,25 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
         <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>5</v>
@@ -2221,22 +2288,22 @@
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>27</v>
@@ -2269,13 +2336,13 @@
         <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB10" t="n">
         <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="J11" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L11" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="M11" t="n">
         <v>31.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U11" t="n">
         <v>28.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>8.4</v>
@@ -2370,7 +2437,7 @@
         <v>4.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
         <v>19.8</v>
@@ -2379,7 +2446,7 @@
         <v>114.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2418,13 +2485,13 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>16</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2448,16 +2515,16 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
       </c>
       <c r="BC11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
         <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
         <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
         <v>10.7</v>
       </c>
       <c r="M12" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
         <v>20.4</v>
@@ -2525,19 +2592,19 @@
         <v>29.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.695</v>
+        <v>0.694</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
         <v>15.9</v>
@@ -2552,34 +2619,34 @@
         <v>4.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>22.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
@@ -2612,7 +2679,7 @@
         <v>27</v>
       </c>
       <c r="AT12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
@@ -2636,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
         <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.556</v>
+        <v>0.549</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J13" t="n">
         <v>85.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
         <v>8.1</v>
@@ -2698,25 +2765,25 @@
         <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
         <v>33.9</v>
       </c>
       <c r="T13" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U13" t="n">
         <v>21.2</v>
@@ -2734,7 +2801,7 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>20.4</v>
@@ -2743,7 +2810,7 @@
         <v>102.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2767,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2776,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2788,13 +2855,13 @@
         <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
@@ -2806,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>0.642</v>
+        <v>0.646</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2868,46 +2935,46 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
         <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P14" t="n">
         <v>26.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
         <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
         <v>5.6</v>
@@ -2919,13 +2986,13 @@
         <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
@@ -2979,7 +3046,7 @@
         <v>25</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>0.21</v>
+        <v>0.207</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3059,28 +3126,28 @@
         <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.778</v>
+        <v>0.781</v>
       </c>
       <c r="R15" t="n">
         <v>10.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
         <v>18</v>
@@ -3089,7 +3156,7 @@
         <v>13.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.1</v>
@@ -3098,16 +3165,16 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3134,7 +3201,7 @@
         <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -3146,10 +3213,10 @@
         <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3167,7 +3234,7 @@
         <v>11</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>24</v>
@@ -3179,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3214,40 +3281,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>0.519</v>
+        <v>0.512</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M16" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P16" t="n">
         <v>24.7</v>
@@ -3265,7 +3332,7 @@
         <v>41.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3277,25 +3344,25 @@
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA16" t="n">
         <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.9</v>
+        <v>-2.2</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3307,13 +3374,13 @@
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,25 +3389,25 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR16" t="n">
         <v>8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>9</v>
       </c>
       <c r="AS16" t="n">
         <v>30</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,37 +3481,37 @@
         <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.47</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
@@ -3453,7 +3520,7 @@
         <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
         <v>6.5</v>
@@ -3462,34 +3529,34 @@
         <v>4.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB17" t="n">
         <v>100</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>27</v>
@@ -3504,19 +3571,19 @@
         <v>28</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
         <v>18</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
@@ -3528,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.407</v>
+        <v>0.402</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
         <v>15.2</v>
@@ -3644,16 +3711,16 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3671,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3686,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
@@ -3704,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3713,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3722,10 +3789,10 @@
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>0.346</v>
+        <v>0.354</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3784,25 +3851,25 @@
         <v>0.464</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>16.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R19" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
         <v>31.5</v>
@@ -3814,10 +3881,10 @@
         <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>4.6</v>
@@ -3826,16 +3893,16 @@
         <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3850,16 +3917,16 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
@@ -3904,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3913,7 +3980,7 @@
         <v>15</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" t="n">
-        <v>0.375</v>
+        <v>0.366</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
         <v>8.6</v>
@@ -3972,7 +4039,7 @@
         <v>23.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O20" t="n">
         <v>17.3</v>
@@ -3981,16 +4048,16 @@
         <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.2</v>
@@ -4011,22 +4078,22 @@
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.5</v>
+        <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4038,16 +4105,16 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN20" t="n">
         <v>9</v>
@@ -4056,16 +4123,16 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
@@ -4074,28 +4141,28 @@
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>13</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4157,22 +4224,22 @@
         <v>0.346</v>
       </c>
       <c r="O21" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>34</v>
       </c>
       <c r="T21" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U21" t="n">
         <v>20.5</v>
@@ -4181,7 +4248,7 @@
         <v>13.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
         <v>5.7</v>
@@ -4190,16 +4257,16 @@
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4217,13 +4284,13 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -4235,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
         <v>25</v>
@@ -4244,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>7</v>
@@ -4256,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="AV21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
         <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4333,10 +4400,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
         <v>19.7</v>
@@ -4345,7 +4412,7 @@
         <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R22" t="n">
         <v>13.1</v>
@@ -4354,7 +4421,7 @@
         <v>35.6</v>
       </c>
       <c r="T22" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="U22" t="n">
         <v>23</v>
@@ -4366,7 +4433,7 @@
         <v>7.4</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.5</v>
@@ -4402,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4447,10 +4514,10 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
         <v>35</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>0.432</v>
+        <v>0.427</v>
       </c>
       <c r="H23" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J23" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
         <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>23.6</v>
@@ -4551,7 +4618,7 @@
         <v>5.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>20.7</v>
@@ -4560,7 +4627,7 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
         <v>-1.6</v>
@@ -4578,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>5</v>
@@ -4590,13 +4657,13 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,13 +4675,13 @@
         <v>17</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>21</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4623,25 +4690,25 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,28 +4758,28 @@
         <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.339</v>
       </c>
       <c r="O24" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P24" t="n">
         <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
         <v>31.8</v>
@@ -4721,10 +4788,10 @@
         <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V24" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W24" t="n">
         <v>8.300000000000001</v>
@@ -4739,13 +4806,13 @@
         <v>21.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB24" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.1</v>
+        <v>-10.2</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4766,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4778,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -4787,7 +4854,7 @@
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>24</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4879,37 +4946,37 @@
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T25" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
         <v>17.2</v>
       </c>
       <c r="W25" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X25" t="n">
         <v>3.8</v>
@@ -4918,16 +4985,16 @@
         <v>5.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
         <v>100.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -4954,52 +5021,52 @@
         <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>12</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
         <v>7</v>
       </c>
       <c r="AU25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX25" t="n">
         <v>28</v>
       </c>
       <c r="AY25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
         <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>0.531</v>
+        <v>0.537</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,16 +5119,16 @@
         <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
         <v>10.5</v>
       </c>
       <c r="M26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="N26" t="n">
         <v>0.37</v>
@@ -5070,25 +5137,25 @@
         <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R26" t="n">
         <v>11.6</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T26" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U26" t="n">
         <v>21.3</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5109,7 +5176,7 @@
         <v>105.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5127,13 +5194,13 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,22 +5209,22 @@
         <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5181,7 +5248,7 @@
         <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="n">
         <v>33</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.407</v>
+        <v>0.402</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,7 +5301,7 @@
         <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.464</v>
@@ -5246,22 +5313,22 @@
         <v>22.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R27" t="n">
         <v>10.6</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
         <v>44.2</v>
@@ -5270,10 +5337,10 @@
         <v>24.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5291,7 +5358,7 @@
         <v>106.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -5312,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>8</v>
@@ -5324,13 +5391,13 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
         <v>26</v>
@@ -5342,10 +5409,10 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
@@ -5363,10 +5430,10 @@
         <v>15</v>
       </c>
       <c r="BA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB27" t="n">
         <v>3</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>4</v>
       </c>
       <c r="BC27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
         <v>67</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.827</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.484</v>
@@ -5425,28 +5492,28 @@
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
         <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="R28" t="n">
         <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.5</v>
@@ -5455,7 +5522,7 @@
         <v>13.1</v>
       </c>
       <c r="W28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X28" t="n">
         <v>5.9</v>
@@ -5473,7 +5540,7 @@
         <v>103.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5518,19 +5585,19 @@
         <v>2</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
@@ -5548,10 +5615,10 @@
         <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.679</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
@@ -5604,7 +5671,7 @@
         <v>0.451</v>
       </c>
       <c r="L29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M29" t="n">
         <v>23.4</v>
@@ -5613,28 +5680,28 @@
         <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P29" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R29" t="n">
         <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
         <v>18.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
@@ -5649,7 +5716,7 @@
         <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
         <v>102.7</v>
@@ -5670,7 +5737,7 @@
         <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,7 +5746,7 @@
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5700,10 +5767,10 @@
         <v>12</v>
       </c>
       <c r="AR29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS29" t="n">
         <v>18</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>16</v>
@@ -5712,10 +5779,10 @@
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
         <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
@@ -5780,19 +5847,19 @@
         <v>36.1</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
         <v>17.1</v>
@@ -5804,19 +5871,19 @@
         <v>0.744</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S30" t="n">
         <v>32.5</v>
       </c>
       <c r="T30" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U30" t="n">
         <v>19</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5828,28 +5895,28 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA30" t="n">
         <v>19.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5861,7 +5928,7 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
         <v>16</v>
@@ -5873,13 +5940,13 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5888,16 +5955,16 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
         <v>14</v>
@@ -5909,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" t="n">
         <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J31" t="n">
         <v>85.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M31" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O31" t="n">
         <v>16.5</v>
@@ -5983,10 +6050,10 @@
         <v>22.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S31" t="n">
         <v>32.8</v>
@@ -5998,7 +6065,7 @@
         <v>24.5</v>
       </c>
       <c r="V31" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
@@ -6010,13 +6077,13 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.5</v>
@@ -6028,16 +6095,16 @@
         <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6052,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>24</v>
@@ -6073,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6088,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>5-23-2015-16</t>
+          <t>2016-05-23</t>
         </is>
       </c>
     </row>
